--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A23_定額控除データ作成（補足資料）.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A23_定額控除データ作成（補足資料）.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="定額控除" sheetId="1" r:id="rId1"/>
+    <sheet name="old_20200210_定額控除" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">定額控除!$A$1:$R$189</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">old_20200210_定額控除!$A$1:$R$189</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">定額控除!$A$1:$R$192</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="191">
   <si>
     <t>控除マスタ</t>
     <rPh sb="0" eb="2">
@@ -1225,6 +1227,67 @@
   </si>
   <si>
     <t>チェーンB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客C</t>
+  </si>
+  <si>
+    <t>顧客D</t>
+  </si>
+  <si>
+    <t>毎月1日に定額控除データが作成されます。(例 2021/05/01 処理)</t>
+    <rPh sb="0" eb="2">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/05/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/05/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計上顧客</t>
+    <rPh sb="0" eb="2">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コキャク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1236,7 +1299,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,6 +1405,21 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2317,7 +2395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2896,6 +2974,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2906,6 +2996,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFF99CC"/>
@@ -2915,12 +3006,14 @@
       <color rgb="FFCCCCFF"/>
       <color rgb="FF89C4FF"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3439,13 +3532,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>912822</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654854</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>31545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3543,13 +3636,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3970</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>71441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>63503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3612,13 +3705,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>65382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>912822</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>67472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3664,13 +3757,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>382588</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>69062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624682</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>61125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3728,13 +3821,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654854</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>65094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>382588</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>65382</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3780,13 +3873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>25392</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>69054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>731831</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>152192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3884,13 +3977,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>731831</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>27279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441308</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>28581</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3936,13 +4029,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25412</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>731850</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>140286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4021,13 +4114,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>443709</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>26990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685803</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>11116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4085,13 +4178,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>731850</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>15085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>443709</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>15373</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4137,13 +4230,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>162722</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>35717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>936628</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4201,13 +4294,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654849</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>119066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>869158</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>111130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4325,13 +4418,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>912822</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654854</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>2174</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4418,13 +4511,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3970</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>50007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>50006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4487,13 +4580,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>51885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>912822</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4539,13 +4632,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>382588</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624682</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>47628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4611,13 +4704,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654854</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>51597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>382588</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>51885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4663,14 +4756,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>150817</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23818</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>583406</xdr:colOff>
+      <xdr:colOff>773906</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>35726</xdr:rowOff>
+      <xdr:rowOff>35725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4679,13 +4772,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6854036" y="4274349"/>
-          <a:ext cx="5254620" cy="1345408"/>
+          <a:off x="6854036" y="5060155"/>
+          <a:ext cx="5445120" cy="750101"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -38049"/>
-            <a:gd name="adj2" fmla="val 66004"/>
+            <a:gd name="adj1" fmla="val -39361"/>
+            <a:gd name="adj2" fmla="val 97750"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -4740,6 +4833,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>計上顧客に対し、</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
@@ -4764,135 +4869,6 @@
             <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>この例で、もし顧客</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>がチェーン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>の配下であったとしても、ひと月につき、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>顧客</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>に対して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>件とチェーン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>に対して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>件の、両方の控除データが作成されます。</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4955,7 +4931,7 @@
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>定額控除は、計上拠点、控除額および控除税額を設定します。</a:t>
+            <a:t>定額控除は、計上顧客、控除額および控除税額を設定します。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
@@ -4979,13 +4955,40 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>品目の設定は任意</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>とし、</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>品目や控除率、控除単価は設定しません。</a:t>
+            <a:t>控除率、控除単価は設定しません。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5005,13 +5008,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>388935</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>23798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>799368</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>33737</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5025,8 +5028,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8056560" y="14168423"/>
-          <a:ext cx="410433" cy="855283"/>
+          <a:off x="8056560" y="14668486"/>
+          <a:ext cx="410433" cy="855282"/>
           <a:chOff x="4752975" y="885825"/>
           <a:chExt cx="409576" cy="657223"/>
         </a:xfrm>
@@ -5130,13 +5133,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>91287</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>26175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>825505</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>79944</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5202,13 +5205,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>537364</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>154766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>779459</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>134923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5274,13 +5277,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>825505</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>150797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>537364</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>151085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5326,13 +5329,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>690564</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>146830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>178595</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>95236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5440,13 +5443,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904878</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>39692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>488159</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>149230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5494,13 +5497,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>694519</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>18320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>817784</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>153848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5517,6 +5520,144 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1604686" y="23672070"/>
+          <a:ext cx="123265" cy="135528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>694519</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>18319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817784</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>153850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="正方形/長方形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1604686" y="23841402"/>
+          <a:ext cx="123265" cy="135531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>694519</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>18320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817784</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>153848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="正方形/長方形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1604686" y="24010737"/>
           <a:ext cx="123265" cy="135528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5570,144 +5711,6 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>817784</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>153850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="正方形/長方形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1604686" y="23841402"/>
-          <a:ext cx="123265" cy="135531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>694519</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>18320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>817784</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>153848</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="正方形/長方形 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1604686" y="24010737"/>
-          <a:ext cx="123265" cy="135528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>694519</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>18319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>817784</xdr:colOff>
-      <xdr:row>147</xdr:row>
       <xdr:rowOff>153849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5770,13 +5773,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>694519</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>18320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>817784</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>153849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5839,13 +5842,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>693105</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>816370</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>141603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5913,13 +5916,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>693105</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>166147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>816370</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>121760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5987,13 +5990,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>912822</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>154785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654854</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>71235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6072,13 +6075,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3970</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6141,13 +6144,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>113010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>912822</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6193,13 +6196,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>382588</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>118013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624682</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>110076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6257,13 +6260,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654854</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>113010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>382588</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114045</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6309,13 +6312,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>160345</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>678656</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>23809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6465,13 +6468,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>773907</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>130971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6603,13 +6606,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>773907</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6695,7 +6698,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>633718</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>100537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="275717"/>
@@ -6753,7 +6756,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>633718</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>100537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="275717"/>
@@ -6811,7 +6814,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>633718</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>100537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="275717"/>
@@ -6869,13 +6872,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3970</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6933,13 +6936,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>912822</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>113010</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6985,13 +6988,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441308</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>36518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>683402</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>20644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7068,13 +7071,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>389751</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>101590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>143690</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>25240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7143,13 +7146,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>143690</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>63415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819953</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7195,13 +7198,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624682</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>63415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>389751</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>65094</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7247,13 +7250,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819953</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>97640</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7319,13 +7322,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7620,13 +7623,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>380992</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>791425</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>93280</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7640,8 +7643,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1297773" y="27146249"/>
-          <a:ext cx="410433" cy="855281"/>
+          <a:off x="1297773" y="27646311"/>
+          <a:ext cx="410433" cy="855282"/>
           <a:chOff x="4752975" y="885825"/>
           <a:chExt cx="409576" cy="657223"/>
         </a:xfrm>
@@ -7812,13 +7815,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>59530</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>11905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7879,13 +7882,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441273</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>107945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>683367</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>92071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7950,13 +7953,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>731831</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>27280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441273</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>100008</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8000,13 +8003,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>11905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8063,11 +8066,5218 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457217</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="角丸四角形吹き出し 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5231623" y="7008018"/>
+          <a:ext cx="3424220" cy="559594"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36741"/>
+            <a:gd name="adj2" fmla="val -157376"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除マスタの開始日が月途中であっても、処理当月を含む期間のマスタは、控除データ作成対象となる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11904</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781844</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="メモ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="834864" y="1263178"/>
+          <a:ext cx="1638620" cy="586264"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除マスタ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>アップロード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535783</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>777877</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3096103" y="1235395"/>
+          <a:ext cx="1110774" cy="646745"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除マスタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781844</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535783</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2473484" y="1556786"/>
+          <a:ext cx="622619" cy="1984"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート : 定義済み処理 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2558742" y="5018777"/>
+          <a:ext cx="1525112" cy="584365"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>定額控除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>作成処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3970</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート : 磁気ディスク 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826930" y="4977768"/>
+          <a:ext cx="1094899" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除マスタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1921829" y="5310960"/>
+          <a:ext cx="636913" cy="2089"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624682</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート : 磁気ディスク 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4680268" y="4983327"/>
+          <a:ext cx="1110774" cy="662623"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>49219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083854" y="5310960"/>
+          <a:ext cx="596414" cy="3679"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>31545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート : 定義済み処理 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2558742" y="18646618"/>
+          <a:ext cx="1525112" cy="594947"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>支払画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>支払申請</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3970</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>71441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>63503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート : 磁気ディスク 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826930" y="18610901"/>
+          <a:ext cx="1094899" cy="662622"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>65382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>67472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="4"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1921829" y="18940122"/>
+          <a:ext cx="636913" cy="2090"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>69062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624682</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>61125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート : 磁気ディスク 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4680268" y="18608522"/>
+          <a:ext cx="1110774" cy="662623"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>支払データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>65094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>65382</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4083854" y="18939834"/>
+          <a:ext cx="596414" cy="288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25392</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>69054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731831</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>152192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート : 定義済み処理 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1717032" y="27318174"/>
+          <a:ext cx="1575119" cy="586058"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>部門入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>承認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731831</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>27279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441308</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>28581</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="カギ線コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="58" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292151" y="27611679"/>
+          <a:ext cx="578157" cy="1302"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25412</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>731850</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>140286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート : 定義済み処理 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="848372" y="29820868"/>
+          <a:ext cx="1575118" cy="586058"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>部門入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ステータス反映</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443709</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>26990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685803</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>11116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート : 磁気ディスク 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3004029" y="29790710"/>
+          <a:ext cx="1110774" cy="654686"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>731850</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>15085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443709</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>15373</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2423490" y="30114085"/>
+          <a:ext cx="580539" cy="288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162722</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>936628</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形吹き出し 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4460402" y="20434457"/>
+          <a:ext cx="4180046" cy="370999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54781"/>
+            <a:gd name="adj2" fmla="val 49439"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>企業、チェーン、顧客のいずれかを指定して、控除データを抽出します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654849</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>119066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>869158</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>111130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="角丸四角形吹き出し 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083849" y="22399946"/>
+          <a:ext cx="3689029" cy="510224"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41945"/>
+            <a:gd name="adj2" fmla="val -99511"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>定額控除とその他の控除が合算されて抽出・表示されます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>※ [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>別 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> ボタンを押下して、支払う対象を選択できます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>2174</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート : 定義済み処理 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2558742" y="11066144"/>
+          <a:ext cx="1525112" cy="587010"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>連携</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3970</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート : 磁気ディスク 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826930" y="11030427"/>
+          <a:ext cx="1094899" cy="670559"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>51885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="4"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1921829" y="11367585"/>
+          <a:ext cx="636913" cy="2090"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624682</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="フローチャート : 磁気ディスク 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4680268" y="11028048"/>
+          <a:ext cx="1110774" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>仕訳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>51597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>51885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4083854" y="11367297"/>
+          <a:ext cx="596414" cy="288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150817</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形吹き出し 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6185857" y="4451038"/>
+          <a:ext cx="4775989" cy="1353028"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38049"/>
+            <a:gd name="adj2" fmla="val 66004"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>チェーンもしくは企業に対してマスタ登録した場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>その配下の顧客それぞれに控除データが作成されるのではなく、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>マスタに登録した単位で、月あたり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>件の控除データが作成されます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>この例で、もし顧客</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>がチェーン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>の配下であったとしても、ひと月につき、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>顧客</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>に対して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>件とチェーン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>に対して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>件の、両方の控除データが作成されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9542</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428638</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形吹き出し 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781942" y="1403031"/>
+          <a:ext cx="3893816" cy="562451"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20099"/>
+            <a:gd name="adj2" fmla="val 108581"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>定額控除は、計上拠点、控除額および控除税額を設定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>品目や控除率、控除単価は設定しません。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388935</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>23798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>799368</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>33737</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8056560" y="14168423"/>
+          <a:ext cx="410433" cy="855283"/>
+          <a:chOff x="4752975" y="885825"/>
+          <a:chExt cx="409576" cy="657223"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="二等辺三角形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4673977" y="1054599"/>
+            <a:ext cx="370699" cy="417199"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="円/楕円 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4645462" y="827701"/>
+            <a:ext cx="399215" cy="344006"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91287</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>26175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>825505</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>79944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863687" y="14367015"/>
+          <a:ext cx="1602898" cy="556689"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>部門入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537364</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>154766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>779459</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>134923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="フローチャート : 磁気ディスク 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10047124" y="14327966"/>
+          <a:ext cx="1110775" cy="650717"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>仕訳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>825505</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>150797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537364</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>151085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9466585" y="14659277"/>
+          <a:ext cx="580539" cy="288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>690564</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>146830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>178595</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="メモ 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8462964" y="13641850"/>
+          <a:ext cx="2094071" cy="794226"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>定額控除の仕訳に対し、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月末の売上比率等に応じて、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>各拠点への振替仕訳を入力します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904878</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>39692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488159</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>149230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="下矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427098" y="22838732"/>
+          <a:ext cx="490061" cy="460058"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>694519</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>18320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817784</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>153848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517479" y="25392920"/>
+          <a:ext cx="123265" cy="135528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>694519</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>18319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817784</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>153850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517479" y="25560559"/>
+          <a:ext cx="123265" cy="135531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>694519</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>18320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817784</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>153848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517479" y="24882380"/>
+          <a:ext cx="123265" cy="135528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>694519</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>18319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817784</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>153849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517479" y="25050019"/>
+          <a:ext cx="123265" cy="135530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>694519</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>18320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817784</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>153849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517479" y="25217660"/>
+          <a:ext cx="123265" cy="135529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>693105</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>26182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>816370</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>141603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516065" y="25743682"/>
+          <a:ext cx="123265" cy="115421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CCCCFF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>693105</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>166147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>816370</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>121760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516065" y="25883647"/>
+          <a:ext cx="123265" cy="123253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CCCCFF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>71235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="フローチャート : 定義済み処理 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2558742" y="8117685"/>
+          <a:ext cx="1525112" cy="587010"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>販売控除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>作成処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3970</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート : 磁気ディスク 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826930" y="8298180"/>
+          <a:ext cx="1094899" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>販売実績</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="カギ線コネクタ 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="4"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1921829" y="8411190"/>
+          <a:ext cx="636913" cy="222270"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>118013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624682</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>110076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="フローチャート : 磁気ディスク 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4680268" y="8080913"/>
+          <a:ext cx="1110774" cy="662623"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654854</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382588</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="47" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083854" y="8411190"/>
+          <a:ext cx="596414" cy="1035"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160345</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23809</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形吹き出し 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6195385" y="8355331"/>
+          <a:ext cx="3124351" cy="637218"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38049"/>
+            <a:gd name="adj2" fmla="val 81042"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>販売実績から作成される控除データは、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>必ず顧客と品目が設定された状態で作成されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形吹き出し 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400090" y="1400650"/>
+          <a:ext cx="2860816" cy="562451"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43548"/>
+            <a:gd name="adj2" fmla="val 110709"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>定額控除も、その他の控除条件と同じく、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>顧客、チェーン、企業のいずれかを設定します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>773907</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>130971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="角丸四角形吹き出し 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="15138084"/>
+          <a:ext cx="3379947" cy="1185387"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27600"/>
+            <a:gd name="adj2" fmla="val -63988"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>定額控除の場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>仕訳は顧客、チェーン、企業の管轄拠点に関わらず、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除マスタに設定した拠点に計上されます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>※ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>処理時点で顧客移行が行なわれていても、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>指定した拠点に計上されます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>773907</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="角丸四角形吹き出し 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="11998166"/>
+          <a:ext cx="3379947" cy="586265"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -25652"/>
+            <a:gd name="adj2" fmla="val 126116"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>販売実績から計算された控除データは、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>仕訳計上時の顧客の拠点に計上されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>633718</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>100537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1456678" y="24964597"/>
+          <a:ext cx="264560" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ﾚ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>633718</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>100537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1456678" y="25299877"/>
+          <a:ext cx="264560" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ﾚ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>633718</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>100537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1456678" y="25475137"/>
+          <a:ext cx="264560" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ﾚ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3970</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="フローチャート : 磁気ディスク 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826930" y="7830978"/>
+          <a:ext cx="1094899" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除マスタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230189</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>912822</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="4"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1921829" y="8166258"/>
+          <a:ext cx="636913" cy="244932"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441308</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>36518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>683402</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>20644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="フローチャート : 磁気ディスク 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3870308" y="27285638"/>
+          <a:ext cx="1110774" cy="654686"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部門入力ﾃﾞｰﾀ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389751</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>101590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>143690</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>25240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="フローチャート : 定義済み処理 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6424791" y="18641050"/>
+          <a:ext cx="1491299" cy="594210"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>控除支払</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>部門入力連携</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>143690</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>63415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>819953</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7916090" y="18938155"/>
+          <a:ext cx="676263" cy="84"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624682</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>63415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389751</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>65094</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="4"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5791042" y="18938155"/>
+          <a:ext cx="633749" cy="1679"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>819953</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97640</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="フローチャート : 磁気ディスク 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8592353" y="18610896"/>
+          <a:ext cx="1015047" cy="654686"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>部門入力ﾃﾞｰﾀ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="メモ 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822960" y="16695420"/>
+          <a:ext cx="5819299" cy="1304449"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>以降の例は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部門入力へ連携して支払う場合のケースです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入金相殺にて支払う場合は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入金相殺のソリューション資料のオペレーションになります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定額控除でも、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部門入力へ連携するものと、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入金相殺にて支払うものの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パターンがある場合は、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定額控除用のデータ種類を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>種類用意することで支払方法を振り分けることができます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380992</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>791425</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>93280</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="グループ化 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1297773" y="27146249"/>
+          <a:ext cx="410433" cy="855281"/>
+          <a:chOff x="4752975" y="885825"/>
+          <a:chExt cx="409576" cy="657223"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="二等辺三角形 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4673977" y="1054599"/>
+            <a:ext cx="370699" cy="417199"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="円/楕円 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4645462" y="827701"/>
+            <a:ext cx="399215" cy="344006"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="角丸四角形吹き出し 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="71437" y="2978945"/>
+          <a:ext cx="752951" cy="354806"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54881"/>
+            <a:gd name="adj2" fmla="val 85833"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>定額控除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="角丸四角形吹き出し 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8700610" y="25031700"/>
+          <a:ext cx="821056" cy="354805"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59825"/>
+            <a:gd name="adj2" fmla="val 105833"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>定額控除分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441273</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>107945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>683367</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>92071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="フローチャート : 磁気ディスク 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3870273" y="28027625"/>
+          <a:ext cx="1110774" cy="654686"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EBS AP</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731831</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>27280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441273</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>100008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="69" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292151" y="27611680"/>
+          <a:ext cx="578122" cy="743288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="角丸四角形吹き出し 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6082664" y="13662660"/>
+          <a:ext cx="821056" cy="354805"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59825"/>
+            <a:gd name="adj2" fmla="val 105833"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>定額控除分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8109,7 +13319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8144,7 +13354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8356,7 +13566,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q189"/>
+  <dimension ref="B2:Q192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -8468,7 +13678,7 @@
         <v>130</v>
       </c>
       <c r="N15" s="58" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="O15" s="63" t="s">
         <v>81</v>
@@ -8606,14 +13816,14 @@
       </c>
       <c r="G19" s="75"/>
       <c r="H19" s="176"/>
-      <c r="I19" s="165" t="s">
-        <v>28</v>
+      <c r="I19" s="197" t="s">
+        <v>188</v>
       </c>
       <c r="J19" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="93" t="s">
-        <v>11</v>
+      <c r="K19" s="194" t="s">
+        <v>182</v>
       </c>
       <c r="L19" s="93" t="s">
         <v>136</v>
@@ -8622,7 +13832,7 @@
         <v>136</v>
       </c>
       <c r="N19" s="191" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="O19" s="183">
         <v>24000</v>
@@ -8652,9 +13862,7 @@
       <c r="J20" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="42" t="s">
-        <v>11</v>
-      </c>
+      <c r="K20" s="195"/>
       <c r="L20" s="42" t="s">
         <v>136</v>
       </c>
@@ -8662,7 +13870,7 @@
         <v>136</v>
       </c>
       <c r="N20" s="177" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="O20" s="68">
         <v>12000</v>
@@ -8692,8 +13900,8 @@
       <c r="J21" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="42" t="s">
-        <v>11</v>
+      <c r="K21" s="195" t="s">
+        <v>183</v>
       </c>
       <c r="L21" s="42" t="s">
         <v>136</v>
@@ -8702,7 +13910,7 @@
         <v>136</v>
       </c>
       <c r="N21" s="177" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="O21" s="68">
         <v>10000</v>
@@ -8732,8 +13940,8 @@
       <c r="J22" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="94" t="s">
-        <v>11</v>
+      <c r="K22" s="196" t="s">
+        <v>184</v>
       </c>
       <c r="L22" s="94" t="s">
         <v>136</v>
@@ -8742,7 +13950,7 @@
         <v>136</v>
       </c>
       <c r="N22" s="179" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="O22" s="186">
         <v>36000</v>
@@ -8761,7 +13969,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
@@ -8823,6 +14031,1952 @@
       </c>
       <c r="F37" s="75"/>
       <c r="G37" s="75"/>
+      <c r="H37" s="194" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="194" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" s="76">
+        <v>24000</v>
+      </c>
+      <c r="L37" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="76">
+        <v>1920</v>
+      </c>
+      <c r="N37" s="81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D38" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="195"/>
+      <c r="K38" s="68">
+        <v>12000</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="68">
+        <v>1200</v>
+      </c>
+      <c r="N38" s="82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="196" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" s="80">
+        <v>36000</v>
+      </c>
+      <c r="L39" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="80">
+        <v>2880</v>
+      </c>
+      <c r="N39" s="83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D57" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="86"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="87"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D58" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="N58" s="88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D59" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K59" s="29">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M59" s="29">
+        <v>144</v>
+      </c>
+      <c r="N59" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D60" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" s="29">
+        <v>3700</v>
+      </c>
+      <c r="L60" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="M60" s="29">
+        <v>370</v>
+      </c>
+      <c r="N60" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D61" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61" s="29">
+        <v>4800</v>
+      </c>
+      <c r="L61" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" s="29">
+        <v>384</v>
+      </c>
+      <c r="N61" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D66" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D78" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="124"/>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D79" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="122"/>
+      <c r="H79" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79" s="122"/>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D80" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80" s="98">
+        <v>1800</v>
+      </c>
+      <c r="H80" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="98">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="96">
+        <v>144</v>
+      </c>
+      <c r="H81" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="I81" s="96">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D82" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" s="98">
+        <v>3700</v>
+      </c>
+      <c r="H82" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="98">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="96">
+        <v>370</v>
+      </c>
+      <c r="H83" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83" s="96">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D84" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="98">
+        <v>4800</v>
+      </c>
+      <c r="H84" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="98">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="121">
+        <v>384</v>
+      </c>
+      <c r="H85" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="I85" s="121">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D86" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="108">
+        <v>24000</v>
+      </c>
+      <c r="H86" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="109">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D87" s="110"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="G87" s="101">
+        <v>1920</v>
+      </c>
+      <c r="H87" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="I87" s="111">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D88" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="104">
+        <v>12000</v>
+      </c>
+      <c r="H88" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="I88" s="113">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D89" s="110"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="G89" s="101">
+        <v>1200</v>
+      </c>
+      <c r="H89" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="I89" s="111">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D90" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="104">
+        <v>36000</v>
+      </c>
+      <c r="H90" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="I90" s="113">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="114"/>
+      <c r="E91" s="115"/>
+      <c r="F91" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="117">
+        <v>2880</v>
+      </c>
+      <c r="H91" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="I91" s="118">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="K92" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="4:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="4:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+    </row>
+    <row r="120" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D120" s="12"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D121" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="I121" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+    </row>
+    <row r="122" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D122" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="I122" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+    </row>
+    <row r="123" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D123" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" s="44"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+    </row>
+    <row r="124" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D124" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="45"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+    </row>
+    <row r="125" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D125" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+    </row>
+    <row r="126" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D126" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F126" s="43"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+    </row>
+    <row r="127" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D127" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+    </row>
+    <row r="128" spans="4:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="13"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+    </row>
+    <row r="129" spans="4:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="13"/>
+      <c r="E129" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H129" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+    </row>
+    <row r="130" spans="4:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D130" s="13"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+    </row>
+    <row r="131" spans="4:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D131" s="13"/>
+      <c r="E131" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+    </row>
+    <row r="132" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D132" s="13"/>
+      <c r="E132" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J132" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K132" s="16"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D133" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" s="47">
+        <v>46300</v>
+      </c>
+      <c r="G133" s="47">
+        <v>4018</v>
+      </c>
+      <c r="H133" s="48"/>
+      <c r="I133" s="48"/>
+      <c r="J133" s="48"/>
+      <c r="K133" s="48"/>
+      <c r="L133" s="43"/>
+    </row>
+    <row r="134" spans="4:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" s="49"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="51"/>
+    </row>
+    <row r="135" spans="4:12" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="20"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
+    </row>
+    <row r="136" spans="4:12" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="20"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+    </row>
+    <row r="137" spans="4:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="20"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+    </row>
+    <row r="138" spans="4:12" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="23"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+    </row>
+    <row r="139" spans="4:12" s="19" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="22"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+    </row>
+    <row r="140" spans="4:12" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="22"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="21"/>
+    </row>
+    <row r="141" spans="4:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D141" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+    </row>
+    <row r="142" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D142" s="12"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="4:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D143" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G143" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H143" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I143" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="21"/>
+    </row>
+    <row r="144" spans="4:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D144" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="21"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="21"/>
+    </row>
+    <row r="145" spans="4:13" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="20"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
+    </row>
+    <row r="146" spans="4:13" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="20"/>
+      <c r="E146" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F146" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G146" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+    </row>
+    <row r="147" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D147" s="20"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
+    </row>
+    <row r="148" spans="4:13" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="20"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
+    </row>
+    <row r="149" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="20"/>
+      <c r="E149" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I149" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J149" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K149" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L149" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="20"/>
+      <c r="E150" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F150" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G150" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H150" s="47">
+        <v>1800</v>
+      </c>
+      <c r="I150" s="47">
+        <v>144</v>
+      </c>
+      <c r="J150" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="K150" s="135">
+        <v>1800</v>
+      </c>
+      <c r="L150" s="136">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="20"/>
+      <c r="E151" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="F151" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="G151" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="H151" s="149">
+        <v>3700</v>
+      </c>
+      <c r="I151" s="149">
+        <v>370</v>
+      </c>
+      <c r="J151" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K151" s="135">
+        <v>3600</v>
+      </c>
+      <c r="L151" s="136">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="4:13" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D152" s="20"/>
+      <c r="E152" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="F152" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="G152" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="H152" s="128">
+        <v>4800</v>
+      </c>
+      <c r="I152" s="128">
+        <v>384</v>
+      </c>
+      <c r="J152" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="K152" s="138">
+        <v>4800</v>
+      </c>
+      <c r="L152" s="139">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="20"/>
+      <c r="E153" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="F153" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="G153" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="H153" s="152">
+        <v>24000</v>
+      </c>
+      <c r="I153" s="152">
+        <v>1920</v>
+      </c>
+      <c r="J153" s="140" t="s">
+        <v>106</v>
+      </c>
+      <c r="K153" s="141">
+        <v>24000</v>
+      </c>
+      <c r="L153" s="142">
+        <v>1920</v>
+      </c>
+      <c r="M153" s="21"/>
+    </row>
+    <row r="154" spans="4:13" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D154" s="20"/>
+      <c r="E154" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="F154" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="G154" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="H154" s="155">
+        <v>12000</v>
+      </c>
+      <c r="I154" s="155">
+        <v>1200</v>
+      </c>
+      <c r="J154" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="K154" s="144">
+        <v>12000</v>
+      </c>
+      <c r="L154" s="145">
+        <v>960</v>
+      </c>
+      <c r="M154" s="21"/>
+    </row>
+    <row r="155" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D155" s="20"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="37"/>
+      <c r="I155" s="38"/>
+      <c r="J155" s="37"/>
+      <c r="K155" s="37"/>
+      <c r="L155" s="129"/>
+    </row>
+    <row r="156" spans="4:13" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D156" s="20"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="34"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
+      <c r="L156" s="41"/>
+    </row>
+    <row r="157" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="20"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
+    </row>
+    <row r="158" spans="4:13" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D158" s="23"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+    </row>
+    <row r="159" spans="4:13" s="19" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D159" s="22"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
+    </row>
+    <row r="160" spans="4:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D160" s="22"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C161" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G163" s="146" t="s">
+        <v>173</v>
+      </c>
+      <c r="H163" s="146"/>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D168" s="156" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D169" s="156"/>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D170" s="156"/>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D171" s="156"/>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D172" s="156"/>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D173" s="156"/>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C175" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D177" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D185" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" s="86"/>
+      <c r="F185" s="86"/>
+      <c r="G185" s="86"/>
+      <c r="H185" s="86"/>
+      <c r="I185" s="86"/>
+      <c r="J185" s="86"/>
+      <c r="K185" s="86"/>
+      <c r="L185" s="86"/>
+      <c r="M185" s="86"/>
+      <c r="N185" s="87"/>
+    </row>
+    <row r="186" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D186" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F186" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="G186" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H186" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I186" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="J186" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="K186" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="L186" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="M186" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="N186" s="88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D187" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F187" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G187" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K187" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M187" s="3">
+        <v>144</v>
+      </c>
+      <c r="N187" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D188" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F188" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G188" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K188" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M188" s="3">
+        <v>370</v>
+      </c>
+      <c r="N188" s="130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="4:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D189" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E189" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F189" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="G189" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="H189" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I189" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K189" s="131">
+        <v>4800</v>
+      </c>
+      <c r="L189" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M189" s="131">
+        <v>384</v>
+      </c>
+      <c r="N189" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D190" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F190" s="75"/>
+      <c r="G190" s="75"/>
+      <c r="H190" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="I190" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J190" s="194" t="s">
+        <v>182</v>
+      </c>
+      <c r="K190" s="76">
+        <v>24000</v>
+      </c>
+      <c r="L190" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="M190" s="76">
+        <v>1920</v>
+      </c>
+      <c r="N190" s="132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="191" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D191" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="67"/>
+      <c r="F191" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G191" s="67"/>
+      <c r="H191" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I191" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J191" s="195"/>
+      <c r="K191" s="68">
+        <v>12000</v>
+      </c>
+      <c r="L191" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M191" s="68">
+        <v>1200</v>
+      </c>
+      <c r="N191" s="133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="4:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D192" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="79"/>
+      <c r="F192" s="79"/>
+      <c r="G192" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H192" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I192" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J192" s="196" t="s">
+        <v>184</v>
+      </c>
+      <c r="K192" s="80">
+        <v>36000</v>
+      </c>
+      <c r="L192" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M192" s="80">
+        <v>2880</v>
+      </c>
+      <c r="N192" s="83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="62" max="16383" man="1"/>
+    <brk id="100" max="17" man="1"/>
+    <brk id="159" max="17" man="1"/>
+  </rowBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="A2:XFD14 B1:XFD1 A23:XFD26 A19:H19 A20:J20 A21:M22 O19:XFD22 A44:XFD190 A37:D39 F37:G37 H39:XFD39 H38:I38 K38:XFD38 L20:M20 A192:XFD1048576 A191:I191 K191:XFD191 A28:XFD36 A27:C27 E27:XFD27 J19:M19 I37:XFD37 A40:XFD40 A16:XFD18 A15:M15 O15:XFD15" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:Q189"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+    </row>
+    <row r="15" spans="2:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="D15" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="162" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="158" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="171" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="65"/>
+      <c r="N16" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="158" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="171" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="163" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="66">
+        <v>12</v>
+      </c>
+      <c r="N17" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q17" s="91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="159" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="173"/>
+      <c r="G18" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="174"/>
+      <c r="I18" s="164" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73">
+        <v>10</v>
+      </c>
+      <c r="N18" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18" s="92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="175" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="188" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" s="191" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="183">
+        <v>24000</v>
+      </c>
+      <c r="P19" s="182" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="184">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D20" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="177"/>
+      <c r="G20" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="178"/>
+      <c r="I20" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="189" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="177" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="68">
+        <v>12000</v>
+      </c>
+      <c r="P20" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="185">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D21" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="177"/>
+      <c r="G21" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="178"/>
+      <c r="I21" s="166" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="189" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="68">
+        <v>10000</v>
+      </c>
+      <c r="P21" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="185">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="193" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="179"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="181" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="167" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" s="190" t="s">
+        <v>136</v>
+      </c>
+      <c r="N22" s="179" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="186">
+        <v>36000</v>
+      </c>
+      <c r="P22" s="180" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="187">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D35" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="87"/>
+    </row>
+    <row r="36" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D37" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="75" t="s">
         <v>97</v>
       </c>
@@ -9019,7 +16173,7 @@
         <v>143</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="J57" s="32" t="s">
         <v>145</v>
@@ -9097,7 +16251,7 @@
         <v>95</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F76" s="122" t="s">
         <v>83</v>
@@ -9146,7 +16300,7 @@
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D79" s="70" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E79" s="70" t="s">
         <v>21</v>
@@ -9374,7 +16528,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="55" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="I118" s="42" t="s">
         <v>124</v>
@@ -9540,7 +16694,7 @@
         <v>62</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="H129" s="15" t="s">
         <v>58</v>
@@ -9880,7 +17034,7 @@
         <v>103</v>
       </c>
       <c r="F150" s="151" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="G150" s="151" t="s">
         <v>106</v>
@@ -10295,7 +17449,7 @@
     <brk id="156" max="17" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="B1:XFD1 A111:XFD117 P84:XFD84 T36:XFD39 M28:XFD33 M2:XFD4 A3:H4 N14:XFD14 J36 A15:E15 A84:C84 R35:XFD35 R40:XFD40 J35:N35 J34:XFD34 G28:I35 A85 C85 A7:H11 P15:XFD15 G38 A123:D123 F123:XFD123 G19:H19 H20 F36:G37 L36:P36 A25 E25 A124:XFD129 A158:B158 D158:XFD158 A172:B172 D172:XFD172 A174:C174 E174:XFD174 A107:XFD107 A110:B110 D110:XFD110 A175:XFD181 A162:XFD164 E77 A2 C2:H2 M7:XFD11 A28:E35 A24:E24 E79 A131:XFD133 A130:E130 H130:XFD130 E140 I19:K22 N19:XFD22 A13:K14 L13:XFD13 I15:K15 E38:E39 A36:D39 A40:N40 I37:P39 F22:F35 G23:XFD25 C25 N84 L84 L18 K16:L16 K17:K18 O187:XFD189 D58:E58 N56:N58 A19:C23 E20 D16:D23 L56:L59 J84 J85:XFD85 E81:E88 E147:L151 A190:XFD1048576 A187:C189 D184:N189 D56:E56 H56:J56 D57:E57 H57:I57 H58:J58 J57 A161:G161 I161:XFD161 A171:XFD171 A165:C165 E165:XFD165 A120:XFD122 A119:G119 J118:XFD119 A118:G118 E23" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD1048576 B1:XFD1" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
